--- a/СПИСОК ДЕТЕЙ МИНСОЦ 2025.xlsx
+++ b/СПИСОК ДЕТЕЙ МИНСОЦ 2025.xlsx
@@ -23396,7 +23396,7 @@
       </c>
       <c r="P166" s="192" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>!</t>
         </is>
       </c>
       <c r="Q166" s="202" t="n">
@@ -23462,7 +23462,7 @@
       </c>
       <c r="P167" s="192" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>!</t>
         </is>
       </c>
       <c r="Q167" s="202" t="n">
@@ -23528,7 +23528,7 @@
       </c>
       <c r="P168" s="192" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>!</t>
         </is>
       </c>
       <c r="Q168" s="202" t="n">

--- a/СПИСОК ДЕТЕЙ МИНСОЦ 2025.xlsx
+++ b/СПИСОК ДЕТЕЙ МИНСОЦ 2025.xlsx
@@ -23198,7 +23198,7 @@
       </c>
       <c r="P163" s="192" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>!</t>
         </is>
       </c>
       <c r="Q163" s="202" t="n">
@@ -23264,7 +23264,7 @@
       </c>
       <c r="P164" s="192" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>!</t>
         </is>
       </c>
       <c r="Q164" s="202" t="n">
@@ -23594,7 +23594,7 @@
       </c>
       <c r="P169" s="192" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>!</t>
         </is>
       </c>
       <c r="Q169" s="202" t="n">
@@ -23660,7 +23660,7 @@
       </c>
       <c r="P170" s="192" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>!</t>
         </is>
       </c>
       <c r="Q170" s="202" t="n">

--- a/СПИСОК ДЕТЕЙ МИНСОЦ 2025.xlsx
+++ b/СПИСОК ДЕТЕЙ МИНСОЦ 2025.xlsx
@@ -23726,7 +23726,7 @@
       </c>
       <c r="P171" s="192" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>!</t>
         </is>
       </c>
       <c r="Q171" s="202" t="n">
@@ -23792,7 +23792,7 @@
       </c>
       <c r="P172" s="192" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>!</t>
         </is>
       </c>
       <c r="Q172" s="202" t="n">
@@ -23990,7 +23990,7 @@
       </c>
       <c r="P175" s="192" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>!</t>
         </is>
       </c>
       <c r="Q175" s="202" t="n">
@@ -24188,7 +24188,7 @@
       </c>
       <c r="P178" s="192" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>!</t>
         </is>
       </c>
       <c r="Q178" s="202" t="n">
@@ -24254,7 +24254,7 @@
       </c>
       <c r="P179" s="192" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>!</t>
         </is>
       </c>
       <c r="Q179" s="202" t="n">
@@ -24320,7 +24320,7 @@
       </c>
       <c r="P180" s="192" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>!</t>
         </is>
       </c>
       <c r="Q180" s="202" t="n">
@@ -24386,7 +24386,7 @@
       </c>
       <c r="P181" s="192" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>!</t>
         </is>
       </c>
       <c r="Q181" s="202" t="n">
